--- a/biology/Neurosciences/Samah_Karaki/Samah_Karaki.xlsx
+++ b/biology/Neurosciences/Samah_Karaki/Samah_Karaki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samah Karaki est née en 1984 et a grandi à Beyrouth où elle a étudié la biologie. Elle a été enseignant-chercheur à l’université Pierre et Marie Curie - UPMC (Paris 6) et a enseigné à l’Institut de psychologie de l'université Paris-Descartes (aujourd'hui incluse dans l'université Paris-Cité). Docteure en neurosciences, elle fonde en 2014 le Social Brain Institute qui a pour objectif de s’appuyer sur les apports des sciences cognitives pour promouvoir la justice sociale et environnementale.
 </t>
@@ -513,46 +525,58 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Famille
-Formation
-Karaki a obtenu en 2005 une licence en Sciences de la vie et de la Terre à l'Université Saint-Joseph de Beyrouth, puis en 2008 un master 2 (M2) en Neurosciences Cognitives à l'Université Claude-Bernard-Lyon-I, et en 2011 un doctorat (Ph.D.) en Neurosciences à l'Université de Montpellier avec félicitations du Jury (Summa cum laude).
-Carrière universitaire
-Samah Karaki a enseigné dans les organisations suivantes [1],[2] : 
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karaki a obtenu en 2005 une licence en Sciences de la vie et de la Terre à l'Université Saint-Joseph de Beyrouth, puis en 2008 un master 2 (M2) en Neurosciences Cognitives à l'Université Claude-Bernard-Lyon-I, et en 2011 un doctorat (Ph.D.) en Neurosciences à l'Université de Montpellier avec félicitations du Jury (Summa cum laude).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Samah_Karaki</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Samah_Karaki</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière universitaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Samah Karaki a enseigné dans les organisations suivantes , : 
 2006-02 - 2006-06 : Assistante de recherche - Institut Max-Planck d'ornithologie, région de Munich, Allemagne ;
 2007-09 - 2008-06 : Chargée de recherche - INSERM-SBRI - Stem-cell and Brain Research Institute, Université Claude-Bernard-Lyon-I, France ;
 2009-10 - 2011-04 : Chargée de cours universitaires - Université de Nimes, département de Psychologie, France ;
 2008-10 - 2011-09 : Doctorante en Neuropsychopharmacologie - Institut de Génomique Fonctionnelle - Université de  Montpellier, France ;
 2013-10 - 2015-02 : Chargée de cours universitaires, Institut de Psychologie Paris-Descartes ;
-2012-03 - 2016-08 : Chercheuse postdoctorale en Neuropsychologie Cognitive - CNRS/INSERM - Université Pierre et Marie Curie (Paris 6- Sorbonne Universités).
-Vie privée</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Samah_Karaki</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Samah_Karaki</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Travaux scientifiques et ouvrages</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+2012-03 - 2016-08 : Chercheuse postdoctorale en Neuropsychologie Cognitive - CNRS/INSERM - Université Pierre et Marie Curie (Paris 6- Sorbonne Universités).</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -575,19 +599,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Publications</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Articles scientifiques
-Karaki a contribué aux articles scientifiques "Quantitative phosphoproteomics unravels biased phosphorylation of serotonin 2A receptor at Ser280 by hallucinogenic versus nonhallucinogenic agonists" en 2014[3], et à "SWI/SNF chromatin remodeler complex within the reward pathway is required for behavioral adaptations to stress" en 2022[4].
-Livres
-En 2021, Samah Karaki publie Le Travail en équipe - Un peu de neurosciences pour les pros qui veulent collaborer autrement  aux Éditions Dunod[5],[6].
-En 2023, elle publie Le talent est une fiction : déconstruire les mythes de la réussite et du mérite, aux Éditions Jean-Claude Lattès[7],[8],[9].
-</t>
-        </is>
-      </c>
+          <t>Travaux scientifiques et ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -610,23 +627,100 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Articles scientifiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karaki a contribué aux articles scientifiques "Quantitative phosphoproteomics unravels biased phosphorylation of serotonin 2A receptor at Ser280 by hallucinogenic versus nonhallucinogenic agonists" en 2014, et à "SWI/SNF chromatin remodeler complex within the reward pathway is required for behavioral adaptations to stress" en 2022.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Samah_Karaki</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Samah_Karaki</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, Samah Karaki publie Le Travail en équipe - Un peu de neurosciences pour les pros qui veulent collaborer autrement  aux Éditions Dunod,.
+En 2023, elle publie Le talent est une fiction : déconstruire les mythes de la réussite et du mérite, aux Éditions Jean-Claude Lattès.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Samah_Karaki</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Samah_Karaki</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Podcast</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karaki produit en 2023 un podcast sur France-Culture, dans la saison 3 de la collection de podcasts "Votre cerveau"[10]. Elle y décrypte plusieurs aspects cognitifs de ce qui peut conduire à être créatif : motivation, collectif, tolérance à l'incertitude - écornant quelques mythes associés au talent[11] :
-Épisode 1/6 : Votre cerveau crée en puisant dans son réservoir d’expériences[12] ;
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karaki produit en 2023 un podcast sur France-Culture, dans la saison 3 de la collection de podcasts "Votre cerveau". Elle y décrypte plusieurs aspects cognitifs de ce qui peut conduire à être créatif : motivation, collectif, tolérance à l'incertitude - écornant quelques mythes associés au talent :
+Épisode 1/6 : Votre cerveau crée en puisant dans son réservoir d’expériences ;
 « Autrefois, le cerveau était considéré comme un organe statique qui se développe et se structure dans l'enfance, puis cesse de se développer après l'âge adulte. Aujourd'hui, on sait qu’il s’enrichit d’une multitude d’expériences et se développe tout au long de la vie - ce qui nourrit sa créativité. »
-Épisode 2/6 : L’anxiété a des effets secondaires sur le travail de votre cerveau[13] ;
+Épisode 2/6 : L’anxiété a des effets secondaires sur le travail de votre cerveau ;
 « Au-delà du potentiel créatif, il faut de l'audace, une subversion particulière pour se lancer, en tant qu'individu, dans une nouvelle direction. Cette subversion fait partie du processus créatif. Quel rôle jouent les contraintes qui s'imposent à notre cerveau, dans ce phénomène ? »
-Épisode 3/6 : Votre cerveau crée en tolérant l’ambiguïté[14] ;
+Épisode 3/6 : Votre cerveau crée en tolérant l’ambiguïté ;
 « En fonction de notre degré de curiosité ou de tolérance, notre cerveau réagit différemment face à ce qui nous trouble. Pour notre cerveau, l’ambiguïté est un élément perturbateur. En voulant nous protéger, il la traite comme intrinsèquement désagréable, ce qui peut bloquer les processus créatifs. »
-Épisode 4/6 : Votre cerveau crée en se libérant du jugement[15] ;
+Épisode 4/6 : Votre cerveau crée en se libérant du jugement ;
 « Quand vous êtes dans l’optique de performer, que vous cherchez à impressionner, à produire une œuvre réussie, à plaire, l’incertitude, qui doit faire partie du travail créatif, disparaît. En visant le succès ou la validation par autrui, vous perdez le plaisir simple et libre de créer. »
-Épisode 5/6 : Votre cerveau crée en s’inspirant des autres[15] ;
+Épisode 5/6 : Votre cerveau crée en s’inspirant des autres ;
 « Considérer que la créativité ne concerne que les idées inédites, c’est ignorer qu’imiter ouvertement les autres peut aussi générer de l’imprévu, du surprenant et même de l’originalité dans l’acte créatif. »
-Épisode 6/6 : Votre cerveau crée en revendiquant sa légitimité[16].
+Épisode 6/6 : Votre cerveau crée en revendiquant sa légitimité.
 « Comment se libérer de l'effet des croyances qui vous enferment ? Comment se libérer de leur poids pour que créer ne soit plus réservé qu'à une poignée d'entre nous ? Votre cerveau est un organe plastique, capable de modifier et de faire évoluer vos propres croyances. »
 </t>
         </is>
